--- a/testData/Notification/WF2_Only_On_the_first_Save_Test_Add.xlsx
+++ b/testData/Notification/WF2_Only_On_the_first_Save_Test_Add.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>ModuleName</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Sudhakar</t>
   </si>
   <si>
-    <t>http://www.google.com</t>
-  </si>
-  <si>
     <t>Enquiry_Name</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Enq_PN_Prefix</t>
   </si>
   <si>
-    <t>TestName1</t>
-  </si>
-  <si>
     <t>test@test.com</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
     <t>Action_Type</t>
   </si>
   <si>
-    <t>Send notification</t>
-  </si>
-  <si>
     <t>TriggerFirstSave</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>WorkflowPos</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>three,four</t>
   </si>
   <si>
@@ -210,13 +198,55 @@
     <t>28-12-2023</t>
   </si>
   <si>
+    <t>Sudhakar VE</t>
+  </si>
+  <si>
+    <t>annie-spratt</t>
+  </si>
+  <si>
+    <t>http://www.google.com/</t>
+  </si>
+  <si>
+    <t>TestNames</t>
+  </si>
+  <si>
+    <t>90739</t>
+  </si>
+  <si>
+    <t>User1_Notify_Count</t>
+  </si>
+  <si>
+    <t>User2_Notify_Count</t>
+  </si>
+  <si>
+    <t>User3_Notify_Count</t>
+  </si>
+  <si>
+    <t>90915</t>
+  </si>
+  <si>
     <t>28-12-2023 05:00 PM</t>
   </si>
   <si>
-    <t>Sudhakar VE</t>
-  </si>
-  <si>
-    <t>annie-spratt</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>90990</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>91003</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>91020</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>28-12-2023 06:00 PM</t>
@@ -551,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,9 +617,11 @@
     <col min="33" max="33" bestFit="true" customWidth="true" width="18.54296875"/>
     <col min="34" max="34" bestFit="true" customWidth="true" width="14.90625"/>
     <col min="35" max="35" bestFit="true" customWidth="true" width="14.0"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" width="17.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -660,75 +692,84 @@
         <v>20</v>
       </c>
       <c r="X1" t="s" s="0">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Y1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="AA1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AB1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AC1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AD1" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="AE1" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="AD1" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="AE1" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="AF1" t="s" s="0">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AG1" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AH1" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="AI1" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="AJ1" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="AI1" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="AJ1" t="s" s="0">
-        <v>50</v>
-      </c>
       <c r="AK1" t="s" s="0">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="AL1" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="AM1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="AN1" t="s" s="0">
+        <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
         <v>22</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F2" s="0">
         <v>3333333333</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2" s="0">
         <v>3</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>24</v>
@@ -743,22 +784,22 @@
         <v>27</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="0">
         <v>44444444444</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="T2" t="s" s="0">
         <v>28</v>
@@ -770,46 +811,55 @@
         <v>7000</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="AA2" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="AB2" t="s" s="0">
-        <v>40</v>
-      </c>
       <c r="AC2" t="s" s="0">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AE2" s="0">
         <v>7777777777</v>
       </c>
       <c r="AF2" t="s" s="0">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="AH2" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="AI2" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="AH2" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="AI2" t="s" s="0">
-        <v>49</v>
-      </c>
       <c r="AJ2" t="s" s="0">
-        <v>52</v>
+        <v>74</v>
+      </c>
+      <c r="AL2" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="AM2" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="AN2" t="s" s="0">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
